--- a/CSI3002 Applied Cryptography and Network Security/assignments/lab assignment/assignment_4/AES tables.xlsx
+++ b/CSI3002 Applied Cryptography and Network Security/assignments/lab assignment/assignment_4/AES tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashanthsingaravelan/Desktop/github/winter_semester-2022/CSI3002 Applied Cryptography and Network Security/lab exercises/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashanthsingaravelan/Desktop/github/winter-semester-2022/CSI3002 Applied Cryptography and Network Security/assignments/lab assignment/assignment_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5F878-EC47-FF49-A35E-B5497192FAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D79BFA5-FB5D-504B-B3D9-6B9256D35BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15320" xr2:uid="{789C10EC-6752-304A-AB57-4E77AF15DCA5}"/>
   </bookViews>
@@ -531,7 +531,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +541,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,12 +563,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -882,7 +891,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1432,7 @@
       <c r="A11" s="2">
         <v>90</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>60</v>
       </c>
       <c r="C11" s="1">
@@ -1444,7 +1453,7 @@
       <c r="H11" s="1">
         <v>90</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>88</v>
       </c>
       <c r="J11" s="1">
@@ -1494,7 +1503,7 @@
       <c r="G12" s="1">
         <v>6</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1709,7 +1718,7 @@
       <c r="H16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>94</v>
       </c>
       <c r="J16" s="1" t="s">
